--- a/data/trans_dic/P18_5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P18_5_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>84,78%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>32,33%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>83,68%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>25,05%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>84,17%</t>
+          <t>28,85%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>17,73%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>22,08%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>20,28%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>20,22%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,44; 32,73</t>
+          <t>14,56; 43,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 27,76</t>
+          <t>5,15; 37,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,01; 22,81</t>
+          <t>13,14; 24,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,8; 19,26</t>
+          <t>10,6; 19,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>80,16; 88,84</t>
+          <t>7,15; 21,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,75; 36,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,74; 24,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,08; 31,45</t>
+          <t>24,36; 41,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,93; 28,37</t>
+          <t>13,85; 27,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>78,69; 87,97</t>
+          <t>20,01; 31,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,23; 32,95</t>
+          <t>20,59; 29,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,08; 21,48</t>
+          <t>17,9; 36,17</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>19,22; 26,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>16,39; 23,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>80,81; 87,23</t>
+          <t>22,25; 38,4</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>12,01; 27,51</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>18,26; 26,31</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>17,17; 23,71</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>15,01; 27,46</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>83,76%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>88,11%</t>
+          <t>27,82%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9,43%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>13,73%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>14,74%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,73; 26,62</t>
+          <t>18,38; 28,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,0</t>
+          <t>4,95; 11,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,97; 12,97</t>
+          <t>7,33; 13,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,23; 15,26</t>
+          <t>8,46; 16,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,52; 94,0</t>
+          <t>8,59; 16,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,2; 33,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,05; 13,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,77</t>
+          <t>26,13; 38,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,21; 19,43</t>
+          <t>7,52; 15,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>80,72; 86,97</t>
+          <t>12,53; 18,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,32; 28,47</t>
+          <t>13,22; 19,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 10,2</t>
+          <t>13,44; 21,47</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,94; 14,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,55; 16,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>85,75; 90,09</t>
+          <t>24,32; 32,4</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 12,49</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>10,9; 15,21</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>11,58; 16,36</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>12,05; 17,59</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>25,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,01%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>84,82%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>88,69%</t>
+          <t>28,82%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>15,14%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>14,65%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>14,9%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,93; 30,09</t>
+          <t>18,92; 31,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,91; 17,18</t>
+          <t>5,96; 17,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,55; 17,38</t>
+          <t>8,62; 15,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,64; 15,95</t>
+          <t>9,36; 15,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,57; 95,8</t>
+          <t>8,52; 20,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,43; 34,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 12,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,48; 21,35</t>
+          <t>26,37; 38,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,81; 19,93</t>
+          <t>6,82; 13,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>79,52; 88,68</t>
+          <t>15,11; 22,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,93; 30,67</t>
+          <t>13,83; 19,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 13,58</t>
+          <t>13,42; 21,06</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>12,83; 17,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>12,41; 16,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>85,42; 91,16</t>
+          <t>24,61; 33,15</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 12,8</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>12,71; 17,73</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>12,71; 17,03</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>12,15; 18,88</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>83,98%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>87,0%</t>
+          <t>25,86%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>10,28%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>16,44%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>12,72%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,91; 26,34</t>
+          <t>19,99; 27,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 11,4</t>
+          <t>5,87; 13,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 14,65</t>
+          <t>9,17; 16,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,34; 14,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,7; 91,86</t>
+          <t>7,07; 14,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,82; 32,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,36; 14,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,94; 20,98</t>
+          <t>25,99; 31,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,15; 20,27</t>
+          <t>9,06; 14,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>81,33; 86,11</t>
+          <t>16,66; 25,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,95; 28,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,89; 11,95</t>
+          <t>12,0; 20,45</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 17,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>13,91; 16,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>85,43; 88,65</t>
+          <t>23,66; 28,34</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>8,4; 13,17</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>13,94; 20,16</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>10,07; 15,55</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23,5%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12,34%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12,39%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30,08%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12,08%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18,57%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18,14%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>26,87%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>15,03%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21,11; 26,51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 12,5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10,6; 14,72</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10,39; 14,7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9,83; 14,48</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27,83; 32,67</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10,34; 14,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17,22; 21,24</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16,64; 20,94</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 20,92</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>25,15; 28,81</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>9,25; 12,41</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>14,41; 17,21</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>14,26; 17,29</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>13,5; 16,88</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,6%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>55184</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>48082</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>95206</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>103620</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>57988</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>83179</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>84435</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>158785</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>220959</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>159131</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>138363</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>132517</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>253991</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>324579</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>217119</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>32361; 96733</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17007; 125118</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>68855; 128606</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>76137; 137664</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>31536; 94346</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>62653; 106495</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>57769; 115318</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>125309; 195965</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>181646; 264299</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>113202; 228754</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>106692; 184151</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>89790; 205632</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>210015; 302552</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>274854; 379626</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>161108; 294838</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>150838</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>72641</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>121549</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>183117</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>130521</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>227482</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>108792</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>187813</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>243344</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>185462</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>378321</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>181433</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>309362</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>426461</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>315983</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>119025; 186261</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>45989; 109424</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>87789; 163038</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>135926; 259132</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>91414; 173583</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>186120; 271550</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>74876; 154618</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>153299; 226840</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>198197; 291080</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>145017; 231731</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>330642; 440555</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>140193; 240448</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>263885; 368230</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>359564; 508118</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>258218; 377008</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>113907</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>66215</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>98288</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>136893</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>102971</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>169573</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>73669</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>172277</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>193348</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>151449</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>283480</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>139883</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>270565</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>330241</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>254419</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>86230; 144601</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>42487; 123520</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>72931; 133785</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>102357; 173910</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>70166; 172559</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>139199; 201676</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>52050; 100602</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>142336; 210453</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>160607; 229090</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>118707; 186255</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>242084; 326015</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>107085; 188961</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>227146; 316824</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>286660; 384070</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>207518; 322446</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>427.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>480396</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>126119</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>106470</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>111333</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>593503</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>163727</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>156778</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>151385</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1073900</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>289846</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>263249</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>262717</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>415817; 578483</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>83894; 189820</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>77881; 144277</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>77291; 158228</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>538589; 659871</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>126023; 207002</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>125250; 192697</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>116630; 198802</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>982457; 1177027</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>236909; 371576</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>223277; 322868</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>207962; 321209</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>468.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>765.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>477.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>466.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>800325</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>313056</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>421513</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>423631</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>402812</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1073738</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>430623</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>675653</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>657651</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>647427</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1874063</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>743680</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1097166</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1081282</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>1050239</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>719080; 903030</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>247893; 425419</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>361971; 502875</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>355307; 502686</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>336494; 495591</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>993300; 1166318</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>368775; 507738</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>610313; 752696</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>589477; 741562</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>564408; 746401</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1754113; 2009771</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>644478; 865080</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>1003002; 1197612</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>992720; 1203770</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>943614; 1179819</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
